--- a/nr-add-changelog/ig/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:11:50+00:00</t>
+    <t>2025-11-18T17:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-changelog/ig/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:12:23+00:00</t>
+    <t>2025-11-18T17:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,7 +112,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Bundle</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Bundle|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -874,7 +874,7 @@
     <t>Bundle.entry:careTeam.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">CareTeam {https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam}
+    <t xml:space="preserve">CareTeam {https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam|2.0.1}
 </t>
   </si>
   <si>
@@ -994,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient}
+    <t xml:space="preserve">Patient {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0}
 </t>
   </si>
   <si>
@@ -1109,7 +1109,7 @@
     <t>Bundle.entry:relatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">RelatedPerson {https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person}
+    <t xml:space="preserve">RelatedPerson {https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|2.0.1}
 </t>
   </si>
   <si>
@@ -1221,7 +1221,7 @@
     <t>Bundle.entry:organization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization|2.0.1}
 </t>
   </si>
   <si>
@@ -1339,7 +1339,7 @@
     <t>Bundle.entry:practitionerRoleOrg.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole}
+    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|1.1.0}
 </t>
   </si>
   <si>
@@ -1457,7 +1457,7 @@
     <t>Bundle.entry:practitionerPro.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner}
+    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|1.1.0}
 </t>
   </si>
   <si>
@@ -1882,7 +1882,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
